--- a/TesteTrocaColeccoes.xlsx
+++ b/TesteTrocaColeccoes.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Customer List" sheetId="4" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Customer List'!$A$1:$D$10</definedName>
     <definedName name="Z_10303AB4_7C61_448B_960B_82D0DEC8E33A_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$D$10</definedName>
-    <definedName name="Z_3E8F9723_C2A6_4C94_AAC4_E7D6E27FFEA4_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!$A:$A,'Customer List'!$D:$I,'Customer List'!$K:$K,'Customer List'!#REF!</definedName>
+    <definedName name="Z_3E8F9723_C2A6_4C94_AAC4_E7D6E27FFEA4_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!$A:$A,'Customer List'!$D:$H,'Customer List'!$J:$J,'Customer List'!#REF!</definedName>
     <definedName name="Z_3E8F9723_C2A6_4C94_AAC4_E7D6E27FFEA4_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$D$10</definedName>
-    <definedName name="Z_8D4B289B_AEDA_45FD_9A7D_26D7C086CEDC_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!$A:$A,'Customer List'!$C:$D,'Customer List'!$J:$L</definedName>
+    <definedName name="Z_8D4B289B_AEDA_45FD_9A7D_26D7C086CEDC_.wvu.Cols" localSheetId="0" hidden="1">'Customer List'!$A:$A,'Customer List'!$C:$D,'Customer List'!$I:$K</definedName>
     <definedName name="Z_8D4B289B_AEDA_45FD_9A7D_26D7C086CEDC_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$D$10</definedName>
   </definedNames>
   <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Ficheiros</t>
   </si>
@@ -285,6 +288,9 @@
   </si>
   <si>
     <t>0.050238157</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -509,17 +515,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,14 +535,54 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="20% - Accent4 2" xfId="2"/>
@@ -571,7 +611,40 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -803,26 +876,26 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Customer List" pivot="0" count="6">
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+    </tableStyle>
+    <tableStyle name="Customer List Pivot" table="0" count="12">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="totalRow" dxfId="16"/>
       <tableStyleElement type="firstColumn" dxfId="15"/>
-      <tableStyleElement type="lastColumn" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-    </tableStyle>
-    <tableStyle name="Customer List Pivot" table="0" count="12">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondColumnSubheading" dxfId="4"/>
-      <tableStyleElement type="thirdColumnSubheading" dxfId="3"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="2"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="secondColumnSubheading" dxfId="10"/>
+      <tableStyleElement type="thirdColumnSubheading" dxfId="9"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="8"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -833,13 +906,1399 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Clientes.txt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Versão Final</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.194738289</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hashmaps/HashSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.1468607813</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TreeMaps/TreeSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.249432646</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="2141378600"/>
+        <c:axId val="2082530408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2141378600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082530408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2082530408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2141378600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Produtos.txt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Versão Final</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1.16418967</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hashmaps/HashSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.7327546303</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TreeMaps/TreeSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>0.994615774</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="2146885896"/>
+        <c:axId val="2141648200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2146885896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141648200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2141648200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="2146885896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vendas3M.txt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Versão Final</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>30.40721305</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Hashmaps/HashSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>21.06798152</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TreeMaps/TreeSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>38.17975375</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="-2146614040"/>
+        <c:axId val="-2146677912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2146614040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146677912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2146677912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2146614040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Tempos M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>édios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> das Queries</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Versão Final</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>5.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>7.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>9.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.00075356433</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3.048631492</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.06916308333</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.042829108</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.06685133567</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HashMaps/HashSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>5.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>7.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>9.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.000759557233</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1.626466788</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.05990099367</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.02493753987</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.08313964733</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TreeMaps/TreeSets</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>5.0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.0</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>7.0</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>8.0</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>9.0</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>0.001144625</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.600089734</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.1183189773</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.063909325</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.06659741</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2144620424"/>
+        <c:axId val="2143879384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2144620424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Query</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143879384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143879384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tempo </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2144620424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5" title="Clientes.txt"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6" title="Clientes.txt"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7" title="Clientes.txt"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tempos Queries"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Tempos Leitura"/>
+      <sheetName val="Testes Classes Leitura"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>Tree+HashMap</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>TreeMap</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>HashMap</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+          <cell r="G3">
+            <v>45.400000000000006</v>
+          </cell>
+          <cell r="H3">
+            <v>39.5</v>
+          </cell>
+          <cell r="I3">
+            <v>46.1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>2</v>
+          </cell>
+          <cell r="G4">
+            <v>0.5</v>
+          </cell>
+          <cell r="H4">
+            <v>0.5</v>
+          </cell>
+          <cell r="I4">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>3</v>
+          </cell>
+          <cell r="G5">
+            <v>54.9</v>
+          </cell>
+          <cell r="H5">
+            <v>54.699999999999996</v>
+          </cell>
+          <cell r="I5">
+            <v>43.4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>4</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>5</v>
+          </cell>
+          <cell r="G7">
+            <v>0.2</v>
+          </cell>
+          <cell r="H7">
+            <v>0.2</v>
+          </cell>
+          <cell r="I7">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>6</v>
+          </cell>
+          <cell r="G8">
+            <v>2.2999999999999998</v>
+          </cell>
+          <cell r="H8">
+            <v>1.9</v>
+          </cell>
+          <cell r="I8">
+            <v>1.7</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>7</v>
+          </cell>
+          <cell r="G9">
+            <v>0.3</v>
+          </cell>
+          <cell r="H9">
+            <v>0.5</v>
+          </cell>
+          <cell r="I9">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>8</v>
+          </cell>
+          <cell r="G10">
+            <v>5.0999999999999997E-2</v>
+          </cell>
+          <cell r="H10">
+            <v>0.05</v>
+          </cell>
+          <cell r="I10">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>9</v>
+          </cell>
+          <cell r="G11">
+            <v>4.7</v>
+          </cell>
+          <cell r="H11">
+            <v>4.2</v>
+          </cell>
+          <cell r="I11">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>10</v>
+          </cell>
+          <cell r="G12">
+            <v>518.20000000000005</v>
+          </cell>
+          <cell r="H12">
+            <v>582.30000000000007</v>
+          </cell>
+          <cell r="I12">
+            <v>482.09999999999997</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>11</v>
+          </cell>
+          <cell r="G13">
+            <v>32.700000000000003</v>
+          </cell>
+          <cell r="H13">
+            <v>24.7</v>
+          </cell>
+          <cell r="I13">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>12</v>
+          </cell>
+          <cell r="G14">
+            <v>79.5</v>
+          </cell>
+          <cell r="H14">
+            <v>143.30000000000001</v>
+          </cell>
+          <cell r="I14">
+            <v>162.70000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:D10" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Ficheiros"/>
-    <tableColumn id="2" name="Versao Final"/>
-    <tableColumn id="3" name="HashMaps/HashSets"/>
-    <tableColumn id="4" name="TreeMaps/TreeSets"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Ficheiros" dataDxfId="5"/>
+    <tableColumn id="2" name="Versao Final" dataDxfId="4"/>
+    <tableColumn id="3" name="HashMaps/HashSets" dataDxfId="3"/>
+    <tableColumn id="4" name="TreeMaps/TreeSets" dataDxfId="2"/>
+    <tableColumn id="6" name="Column1" dataDxfId="1" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1170,10 +2629,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -1182,385 +2641,393 @@
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.1640625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.5" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="18.1640625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="23.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="41.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="7.83203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="11.5" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="18.1640625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="23.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="30.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="4">
+      <c r="E2" s="21"/>
+      <c r="G2" s="9">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="4">
+      <c r="E3" s="21"/>
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="4">
+      <c r="E4" s="21"/>
+      <c r="G4" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="J4" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="E5" s="21"/>
+      <c r="G5" s="12">
         <v>6</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="I5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="6">
+      <c r="E6" s="21"/>
+      <c r="G6" s="12">
         <v>6</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="E7" s="21"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12">
         <v>6</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="4">
+      <c r="E8" s="21"/>
+      <c r="G8" s="9">
         <v>7</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="4">
+      <c r="E9" s="21"/>
+      <c r="G9" s="9">
         <v>7</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="J9" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="4">
+      <c r="E10" s="21"/>
+      <c r="G10" s="9">
         <v>7</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="J10" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15">
-      <c r="H11" s="6">
+    <row r="11" spans="1:10" ht="15">
+      <c r="G11" s="12">
         <v>8</v>
       </c>
+      <c r="H11" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="I11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="H12" s="6">
+    <row r="12" spans="1:10" ht="15">
+      <c r="G12" s="12">
         <v>8</v>
       </c>
+      <c r="H12" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="H13" s="6">
+    <row r="13" spans="1:10" ht="15">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="12">
         <v>8</v>
       </c>
+      <c r="H13" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="J13" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="H14" s="4">
+    <row r="14" spans="1:10" ht="15">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9">
         <v>9</v>
       </c>
+      <c r="H14" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="H15" s="4">
+    <row r="15" spans="1:10" ht="15">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9">
         <v>9</v>
       </c>
+      <c r="H15" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="H16" s="4">
+    <row r="16" spans="1:10" ht="15">
+      <c r="G16" s="9">
         <v>9</v>
       </c>
+      <c r="H16" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="J16" s="19" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="1">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1570,10 +3037,31 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"Arial,Bold"&amp;16&amp;K01+021[Company Name]&amp;R&amp;"Arial,Bold"&amp;K01+021&amp;D_x000D_Page &amp;P of &amp;N</oddHeader>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Customer List'!D2:D10</xm:f>
+              <xm:sqref>A11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>

--- a/TesteTrocaColeccoes.xlsx
+++ b/TesteTrocaColeccoes.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Customer List" sheetId="4" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Customer List'!$A$1:$D$10</definedName>
     <definedName name="Z_10303AB4_7C61_448B_960B_82D0DEC8E33A_.wvu.PrintArea" localSheetId="0" hidden="1">'Customer List'!$A$1:$D$10</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>Ficheiros</t>
   </si>
@@ -288,16 +285,13 @@
   </si>
   <si>
     <t>0.050238157</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -373,6 +367,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -488,7 +489,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -514,8 +515,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -583,8 +586,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="20% - Accent4 2" xfId="2"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -606,31 +612,15 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1 2" xfId="3"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="24">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -876,26 +866,26 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Customer List" pivot="0" count="6">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Customer List Pivot" table="0" count="12">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="secondColumnSubheading" dxfId="10"/>
-      <tableStyleElement type="thirdColumnSubheading" dxfId="9"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="8"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="10"/>
+      <tableStyleElement type="secondColumnSubheading" dxfId="9"/>
+      <tableStyleElement type="thirdColumnSubheading" dxfId="8"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1034,11 +1024,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2141378600"/>
-        <c:axId val="2082530408"/>
+        <c:axId val="2093696392"/>
+        <c:axId val="2093699496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141378600"/>
+        <c:axId val="2093696392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1037,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082530408"/>
+        <c:crossAx val="2093699496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1055,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082530408"/>
+        <c:axId val="2093699496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1061,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2141378600"/>
+        <c:crossAx val="2093696392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1221,11 +1211,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="2146885896"/>
-        <c:axId val="2141648200"/>
+        <c:axId val="2093780888"/>
+        <c:axId val="2093783944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146885896"/>
+        <c:axId val="2093780888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1224,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141648200"/>
+        <c:crossAx val="2093783944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1242,7 +1232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141648200"/>
+        <c:axId val="2093783944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1248,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2146885896"/>
+        <c:crossAx val="2093780888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1408,11 +1398,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="-2146614040"/>
-        <c:axId val="-2146677912"/>
+        <c:axId val="2093820840"/>
+        <c:axId val="2093823896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146614040"/>
+        <c:axId val="2093820840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1411,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146677912"/>
+        <c:crossAx val="2093823896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1429,7 +1419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146677912"/>
+        <c:axId val="2093823896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1435,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2146614040"/>
+        <c:crossAx val="2093820840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,47 +1474,26 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Tempos M</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempos</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>édios</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de resposta queries</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
-              <a:t> das Queries</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1700,54 +1669,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2144620424"/>
-        <c:axId val="2143879384"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="2093874392"/>
+        <c:axId val="2093880776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144620424"/>
+        <c:axId val="2093874392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Query</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1785,7 +1717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143879384"/>
+        <c:crossAx val="2093880776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1793,7 +1725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143879384"/>
+        <c:axId val="2093880776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,38 +1748,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Tempo </a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1855,9 +1770,6 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
@@ -1880,10 +1792,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144620424"/>
+        <c:crossAx val="2093874392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1892,38 +1810,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2092,213 +1978,13 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tempos Queries"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Tempos Leitura"/>
-      <sheetName val="Testes Classes Leitura"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="G2" t="str">
-            <v>Tree+HashMap</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>TreeMap</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>HashMap</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-          <cell r="G3">
-            <v>45.400000000000006</v>
-          </cell>
-          <cell r="H3">
-            <v>39.5</v>
-          </cell>
-          <cell r="I3">
-            <v>46.1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>2</v>
-          </cell>
-          <cell r="G4">
-            <v>0.5</v>
-          </cell>
-          <cell r="H4">
-            <v>0.5</v>
-          </cell>
-          <cell r="I4">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>3</v>
-          </cell>
-          <cell r="G5">
-            <v>54.9</v>
-          </cell>
-          <cell r="H5">
-            <v>54.699999999999996</v>
-          </cell>
-          <cell r="I5">
-            <v>43.4</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>4</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>-</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>5</v>
-          </cell>
-          <cell r="G7">
-            <v>0.2</v>
-          </cell>
-          <cell r="H7">
-            <v>0.2</v>
-          </cell>
-          <cell r="I7">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>6</v>
-          </cell>
-          <cell r="G8">
-            <v>2.2999999999999998</v>
-          </cell>
-          <cell r="H8">
-            <v>1.9</v>
-          </cell>
-          <cell r="I8">
-            <v>1.7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>7</v>
-          </cell>
-          <cell r="G9">
-            <v>0.3</v>
-          </cell>
-          <cell r="H9">
-            <v>0.5</v>
-          </cell>
-          <cell r="I9">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>8</v>
-          </cell>
-          <cell r="G10">
-            <v>5.0999999999999997E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>0.05</v>
-          </cell>
-          <cell r="I10">
-            <v>0.04</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>9</v>
-          </cell>
-          <cell r="G11">
-            <v>4.7</v>
-          </cell>
-          <cell r="H11">
-            <v>4.2</v>
-          </cell>
-          <cell r="I11">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>10</v>
-          </cell>
-          <cell r="G12">
-            <v>518.20000000000005</v>
-          </cell>
-          <cell r="H12">
-            <v>582.30000000000007</v>
-          </cell>
-          <cell r="I12">
-            <v>482.09999999999997</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>11</v>
-          </cell>
-          <cell r="G13">
-            <v>32.700000000000003</v>
-          </cell>
-          <cell r="H13">
-            <v>24.7</v>
-          </cell>
-          <cell r="I13">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>12</v>
-          </cell>
-          <cell r="G14">
-            <v>79.5</v>
-          </cell>
-          <cell r="H14">
-            <v>143.30000000000001</v>
-          </cell>
-          <cell r="I14">
-            <v>162.70000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <tableColumns count="5">
-    <tableColumn id="1" name="Ficheiros" dataDxfId="5"/>
-    <tableColumn id="2" name="Versao Final" dataDxfId="4"/>
-    <tableColumn id="3" name="HashMaps/HashSets" dataDxfId="3"/>
-    <tableColumn id="4" name="TreeMaps/TreeSets" dataDxfId="2"/>
-    <tableColumn id="6" name="Column1" dataDxfId="1" dataCellStyle="Normal 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Ficheiros" dataDxfId="3"/>
+    <tableColumn id="2" name="Versao Final" dataDxfId="2"/>
+    <tableColumn id="3" name="HashMaps/HashSets" dataDxfId="1"/>
+    <tableColumn id="4" name="TreeMaps/TreeSets" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2665,9 +2351,6 @@
       <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
@@ -2694,7 +2377,6 @@
       <c r="D2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="21"/>
       <c r="G2" s="9">
         <v>5</v>
       </c>
@@ -2721,7 +2403,6 @@
       <c r="D3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="21"/>
       <c r="G3" s="9">
         <v>5</v>
       </c>
@@ -2748,7 +2429,6 @@
       <c r="D4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="21"/>
       <c r="G4" s="9">
         <v>5</v>
       </c>
@@ -2775,7 +2455,6 @@
       <c r="D5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="21"/>
       <c r="G5" s="12">
         <v>6</v>
       </c>
@@ -2802,7 +2481,6 @@
       <c r="D6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="21"/>
       <c r="G6" s="12">
         <v>6</v>
       </c>
@@ -2829,8 +2507,7 @@
       <c r="D7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="G7" s="12">
         <v>6</v>
       </c>
@@ -2857,7 +2534,6 @@
       <c r="D8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="21"/>
       <c r="G8" s="9">
         <v>7</v>
       </c>
@@ -2884,7 +2560,6 @@
       <c r="D9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="21"/>
       <c r="G9" s="9">
         <v>7</v>
       </c>
@@ -2911,7 +2586,6 @@
       <c r="D10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="21"/>
       <c r="G10" s="9">
         <v>7</v>
       </c>
@@ -2954,11 +2628,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="12">
@@ -2975,11 +2649,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="9">
@@ -2996,11 +2670,11 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15">
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="21">
         <v>50</v>
       </c>
       <c r="G15" s="9">
